--- a/centos4to5checklist_server.kannart.com.xlsx
+++ b/centos4to5checklist_server.kannart.com.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakak\Documents\GitHub\test\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -459,6 +459,10 @@
   <si>
     <t>#exclude=apache* bind-chroot courier* dovecot* exim* httpd* mod_ssl* mysql* nsd* openssh* openssl* perl* php* postgresql* proftpd* pure-ftpd* ruby* spamassassin* squirrelmail* webalizer*
 exclude=aspell* libc-client* apache* bind-chroot courier* dovecot* exim* httpd* mod_ssl* mysql* nsd* perl* php* proftpd* pure-ftpd* ruby* spamassassin* squirrelmail* postgresql*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぬるぽ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1143,7 +1147,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
@@ -1168,6 +1172,9 @@
       <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -1217,7 +1224,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="351">
+    <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
